--- a/TrackModel/Track Layout & Vehicle Data vF1.xlsx
+++ b/TrackModel/Track Layout & Vehicle Data vF1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwc12\Documents\NetBeansProjects\Software-Engineering\TrackModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="13380" windowHeight="6336" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Vehicle Data 1" sheetId="5" r:id="rId5"/>
     <sheet name="Vehicle Data 2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -297,12 +302,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +433,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -905,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,9 +950,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,6 +985,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1146,34 +1161,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="31.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" ht="5.4" customHeight="1"/>
-    <row r="3" spans="1:3">
+    <row r="2" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1184,31 +1199,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L77" sqref="L77"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.799999999999997" customHeight="1">
+    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -1306,7 +1321,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -1338,7 +1353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1370,7 +1385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1399,7 +1414,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1431,7 +1446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1466,7 +1481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1495,7 +1510,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.2">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1533,7 +1548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1568,7 +1583,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1597,7 +1612,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1629,7 +1644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1661,7 +1676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1690,7 +1705,7 @@
         <v>2.0909999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1728,7 +1743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31.2">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1766,7 +1781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1795,7 +1810,7 @@
         <v>0.24099999999999966</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1825,7 +1840,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1854,7 +1869,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1886,7 +1901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.2">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1921,7 +1936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1950,7 +1965,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -1982,7 +1997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2017,7 +2032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="46.8">
+    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2049,7 +2064,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2081,7 +2096,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31.2">
+    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2116,7 +2131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2151,7 +2166,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2183,7 +2198,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2215,7 +2230,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2247,7 +2262,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31.2">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2282,7 +2297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2317,7 +2332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2349,7 +2364,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="46.8">
+    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2381,7 +2396,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2413,7 +2428,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -2445,7 +2460,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31.2">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2480,7 +2495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2515,7 +2530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2547,7 +2562,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2579,7 +2594,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2611,7 +2626,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.2">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2646,7 +2661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2681,7 +2696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="46.8">
+    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2716,7 +2731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2751,7 +2766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="31.2">
+    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2783,7 +2798,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="46.8">
+    <row r="49" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2818,7 +2833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2850,7 +2865,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2879,7 +2894,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2908,7 +2923,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2943,7 +2958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2975,7 +2990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3007,7 +3022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3039,7 +3054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3068,7 +3083,7 @@
         <v>0.74999999999999967</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3100,7 +3115,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3132,7 +3147,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3161,7 +3176,7 @@
         <v>2.2499999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31.2">
+    <row r="61" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3196,7 +3211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3228,7 +3243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3257,7 +3272,7 @@
         <v>1.1249999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3289,7 +3304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3321,7 +3336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3350,7 +3365,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3385,7 +3400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3423,7 +3438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3458,7 +3473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3490,7 +3505,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A77" si="5">A70</f>
         <v>Red</v>
@@ -3525,7 +3540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3563,7 +3578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3601,7 +3616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3636,7 +3651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3668,7 +3683,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3703,7 +3718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -3741,7 +3756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
@@ -3775,232 +3790,232 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
@@ -4010,7 +4025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4018,23 +4033,23 @@
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="8.88671875" style="3"/>
-    <col min="12" max="12" width="10.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="8.85546875" style="3"/>
+    <col min="12" max="12" width="10.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.8">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4069,7 +4084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4103,7 +4118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -4135,7 +4150,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -4167,7 +4182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4199,7 +4214,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4228,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4260,7 +4275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4293,7 +4308,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4322,7 +4337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4354,7 +4369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4383,7 +4398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4412,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4450,7 +4465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4485,7 +4500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4514,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4543,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4578,7 +4593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4610,7 +4625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4639,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4671,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4703,7 +4718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4735,7 +4750,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4767,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4796,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4825,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4854,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4883,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4912,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4947,7 +4962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4985,7 +5000,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5014,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5046,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5078,7 +5093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5110,7 +5125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5139,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5171,7 +5186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5206,7 +5221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -5238,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5270,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.2">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5302,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5334,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5366,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5398,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5430,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5462,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5494,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5526,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5558,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.2">
+    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5590,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5622,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5654,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5686,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5718,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5750,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5782,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5814,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5846,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.2">
+    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5884,7 +5899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5922,7 +5937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5951,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5980,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6012,7 +6027,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6050,7 +6065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6082,7 +6097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6111,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6143,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6172,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6201,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6233,7 +6248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -6265,7 +6280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -6294,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6323,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6352,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6387,7 +6402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6419,7 +6434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6448,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6486,7 +6501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6524,7 +6539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6553,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6582,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6611,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6640,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6669,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6698,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6727,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6762,7 +6777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6800,7 +6815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6829,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6864,7 +6879,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6896,7 +6911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6925,7 +6940,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6954,7 +6969,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6983,7 +6998,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7012,7 +7027,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7041,7 +7056,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7070,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7102,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7134,7 +7149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7166,7 +7181,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7195,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7230,7 +7245,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7265,7 +7280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7297,7 +7312,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7326,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7358,7 +7373,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7394,7 +7409,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7423,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7452,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7481,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7513,7 +7528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7545,7 +7560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7574,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7603,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7632,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7665,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7694,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7726,7 +7741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7758,7 +7773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7787,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7816,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7845,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7877,7 +7892,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7912,7 +7927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="31.2">
+    <row r="124" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7945,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7977,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8009,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8041,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8073,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8105,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8137,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8169,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8201,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.2">
+    <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8234,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8266,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
@@ -8298,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8330,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8362,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8394,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8426,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8458,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8490,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.2">
+    <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8523,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8555,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8590,7 +8605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8622,7 +8637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8651,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8683,7 +8698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8715,7 +8730,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8744,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8776,7 +8791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8811,7 +8826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8846,7 +8861,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
@@ -8888,16 +8903,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -8913,7 +8928,7 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -8927,16 +8942,16 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="10"/>
     </row>
-    <row r="19" spans="11:11" ht="15.6">
+    <row r="19" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="11:11" ht="15.6">
+    <row r="20" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K20" s="10"/>
     </row>
   </sheetData>
@@ -8952,12 +8967,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8965,12 +8980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
